--- a/Selenium/src/ex10/testdata.xlsx
+++ b/Selenium/src/ex10/testdata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>email</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>ccccc</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -416,8 +419,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.28515625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="42.28515625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -433,7 +436,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -464,8 +467,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.42578125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="78.28515625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="42.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="78.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
